--- a/Lab4/result.xlsx
+++ b/Lab4/result.xlsx
@@ -415,7 +415,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -547,10 +547,70 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
+      <c r="B8">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.251</v>
+      </c>
+      <c r="D8">
+        <v>0.251</v>
+      </c>
+      <c r="E8">
+        <v>0.247</v>
+      </c>
+      <c r="F8">
+        <v>0.245</v>
+      </c>
+      <c r="G8">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.24</v>
+      </c>
+      <c r="I8">
+        <v>0.24</v>
+      </c>
+      <c r="J8">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.23799999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.23599999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">

--- a/Lab4/result.xlsx
+++ b/Lab4/result.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,14 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
-    <t>0.1T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.3T</t>
   </si>
   <si>
@@ -48,20 +44,12 @@
   </si>
   <si>
     <t>0.9T</t>
-  </si>
-  <si>
-    <t>1T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>trainset1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>log-likelihood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ridge-regression</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +76,18 @@
   <si>
     <t>testset2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log-likelihood</t>
+  </si>
+  <si>
+    <t>0.1T</t>
+  </si>
+  <si>
+    <t>0.2T</t>
+  </si>
+  <si>
+    <t>1T</t>
   </si>
 </sst>
 </file>
@@ -118,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -126,17 +126,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -147,6 +316,173 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42688.908912037034" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:K5" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="log-likelihood" numFmtId="0">
+      <sharedItems count="4">
+        <s v="trainset1"/>
+        <s v="testset1"/>
+        <s v="trainset2"/>
+        <s v="testset2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="0.1T" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1835" maxValue="0.25280000000000002"/>
+    </cacheField>
+    <cacheField name="0.2T" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.16309999999999999" maxValue="0.23799999999999999"/>
+    </cacheField>
+    <cacheField name="0.3T" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.18909999999999999" maxValue="0.28370000000000001"/>
+    </cacheField>
+    <cacheField name="0.4T" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.19170000000000001" maxValue="0.245"/>
+    </cacheField>
+    <cacheField name="0.5T" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.16139999999999999" maxValue="0.24399999999999999"/>
+    </cacheField>
+    <cacheField name="0.6T" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.16800000000000001" maxValue="0.26700000000000002"/>
+    </cacheField>
+    <cacheField name="0.7T" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.161" maxValue="0.24399999999999999"/>
+    </cacheField>
+    <cacheField name="0.8T" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.16239999999999999" maxValue="0.25"/>
+    </cacheField>
+    <cacheField name="0.9T" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1585" maxValue="0.23799999999999999"/>
+    </cacheField>
+    <cacheField name="1T" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1656" maxValue="0.23599999999999999"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="4">
+  <r>
+    <x v="0"/>
+    <n v="0.23100000000000001"/>
+    <n v="0.23799999999999999"/>
+    <n v="0.23200000000000001"/>
+    <n v="0.23599999999999999"/>
+    <n v="0.23499999999999999"/>
+    <n v="0.26700000000000002"/>
+    <n v="0.23499999999999999"/>
+    <n v="0.25"/>
+    <n v="0.23799999999999999"/>
+    <n v="0.23599999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.24"/>
+    <n v="0.22539999999999999"/>
+    <n v="0.24099999999999999"/>
+    <n v="0.245"/>
+    <n v="0.24399999999999999"/>
+    <n v="0.24"/>
+    <n v="0.24399999999999999"/>
+    <n v="0.221"/>
+    <n v="0.22500000000000001"/>
+    <n v="0.23400000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.1835"/>
+    <n v="0.16309999999999999"/>
+    <n v="0.28370000000000001"/>
+    <n v="0.19170000000000001"/>
+    <n v="0.1711"/>
+    <n v="0.1762"/>
+    <n v="0.161"/>
+    <n v="0.16239999999999999"/>
+    <n v="0.16020000000000001"/>
+    <n v="0.1656"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.25280000000000002"/>
+    <n v="0.1777"/>
+    <n v="0.18909999999999999"/>
+    <n v="0.19389999999999999"/>
+    <n v="0.16139999999999999"/>
+    <n v="0.16800000000000001"/>
+    <n v="0.16739999999999999"/>
+    <n v="0.18590000000000001"/>
+    <n v="0.1585"/>
+    <n v="0.183"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:K11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowCellStyle="着色 1" dataCellStyle="着色 1">
+  <autoFilter ref="A1:K11">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="1" name="log-likelihood" dataDxfId="12"/>
+    <tableColumn id="2" name="0.1T" dataDxfId="11"/>
+    <tableColumn id="3" name="0.2T" dataDxfId="10"/>
+    <tableColumn id="4" name="0.3T" dataDxfId="9"/>
+    <tableColumn id="5" name="0.4T" dataDxfId="8"/>
+    <tableColumn id="6" name="0.5T" dataDxfId="7"/>
+    <tableColumn id="7" name="0.6T" dataDxfId="6"/>
+    <tableColumn id="8" name="0.7T" dataDxfId="5"/>
+    <tableColumn id="9" name="0.8T" dataDxfId="4"/>
+    <tableColumn id="10" name="0.9T" dataDxfId="3"/>
+    <tableColumn id="11" name="1T" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,220 +748,484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B3" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.245</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.221</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.1835</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.16309999999999999</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.28370000000000001</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.19170000000000001</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.1711</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.1762</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.161</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.16239999999999999</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.16020000000000001</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.1656</v>
+      </c>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.25280000000000002</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.1777</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.18909999999999999</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.19389999999999999</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.16139999999999999</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.16739999999999999</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.18590000000000001</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.1585</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.183</v>
+      </c>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="C2">
+      <c r="B8" s="12">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.251</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.251</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.247</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.245</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="J8" s="12">
         <v>0.23799999999999999</v>
       </c>
-      <c r="D2">
+      <c r="K8" s="12">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E9" s="12">
         <v>0.23200000000000001</v>
       </c>
-      <c r="E2">
+      <c r="F9" s="12">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="K9" s="12">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F2">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="G2">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="H2">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.25</v>
-      </c>
-      <c r="J2">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="K2">
-        <v>0.23599999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>0.24</v>
-      </c>
-      <c r="C3">
-        <v>0.22539999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="E3">
-        <v>0.245</v>
-      </c>
-      <c r="F3">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="G3">
-        <v>0.24</v>
-      </c>
-      <c r="H3">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="I3">
-        <v>0.221</v>
-      </c>
-      <c r="J3">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="K3">
-        <v>0.23400000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B10" s="11">
+        <v>0.1996</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.2326</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.1988</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.1915</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.1971</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.18490000000000001</v>
+      </c>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="C8">
-        <v>0.251</v>
-      </c>
-      <c r="D8">
-        <v>0.251</v>
-      </c>
-      <c r="E8">
-        <v>0.247</v>
-      </c>
-      <c r="F8">
-        <v>0.245</v>
-      </c>
-      <c r="G8">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.24</v>
-      </c>
-      <c r="I8">
-        <v>0.24</v>
-      </c>
-      <c r="J8">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="K8">
-        <v>0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="C9">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="D9">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="E9">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="F9">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="G9">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H9">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="J9">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="K9">
-        <v>0.23599999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
+      <c r="B11" s="11">
+        <v>0.20530000000000001</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.2051</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.1988</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.1968</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.18160000000000001</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.1676</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.16139999999999999</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.16070000000000001</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.1588</v>
+      </c>
+      <c r="L11" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>